--- a/dataset/final_datasets/athletes_id_url.xlsx
+++ b/dataset/final_datasets/athletes_id_url.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\final_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D554331-6A56-4EBD-B197-66E5E9879330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA6F7B2-0AE2-4374-BDB7-56114939DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18088,10 +18088,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -18114,13 +18122,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -18423,8 +18434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
+      <selection activeCell="B626" sqref="B626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23437,7 +23448,7 @@
       <c r="A626">
         <v>626</v>
       </c>
-      <c r="B626" t="s">
+      <c r="B626" s="1" t="s">
         <v>625</v>
       </c>
     </row>
@@ -66570,6 +66581,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B626" r:id="rId1" xr:uid="{851CBDD8-D930-4DF3-B79F-BC71BF91773A}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>